--- a/App_Data/reports/Timesheet.xlsx
+++ b/App_Data/reports/Timesheet.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="645" windowWidth="18855" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="495" windowWidth="17235" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Day View" sheetId="6" r:id="rId1"/>
     <sheet name="Activity View" sheetId="1" r:id="rId2"/>
     <sheet name="Time(Cost vs Value)" sheetId="5" state="hidden" r:id="rId3"/>
-    <sheet name="Data" sheetId="2" state="hidden" r:id="rId4"/>
-    <sheet name="Definitions" sheetId="3" state="hidden" r:id="rId5"/>
-    <sheet name="Project Ratecard" sheetId="4" state="hidden" r:id="rId6"/>
+    <sheet name="Project View" sheetId="8" r:id="rId4"/>
+    <sheet name="Data" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="Definitions" sheetId="3" state="hidden" r:id="rId6"/>
+    <sheet name="Project Ratecard" sheetId="4" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="data">OFFSET(Data!$A$1,0,0,COUNTA(Data!$A:$A),13)</definedName>
@@ -20,9 +21,9 @@
     <definedName name="NAME">Definitions!$B$4:$B$4</definedName>
     <definedName name="URL">Definitions!$B$2:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="55">
   <si>
     <t>DO NOT</t>
   </si>
@@ -74,13 +75,7 @@
     <t>Time Type</t>
   </si>
   <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Story</t>
   </si>
   <si>
     <t>Sum of Time Spent</t>
@@ -101,28 +96,16 @@
     <t>2010-Apr-30</t>
   </si>
   <si>
-    <t>2014-Jan-16</t>
+    <t>Grand Total</t>
   </si>
   <si>
     <t>Manager Person</t>
-  </si>
-  <si>
-    <t>INTRA-41</t>
-  </si>
-  <si>
-    <t>Webpart Zones: Customize Screen Parts</t>
   </si>
   <si>
     <t>INTRA-36</t>
   </si>
   <si>
     <t>Multiple Currency Support</t>
-  </si>
-  <si>
-    <t>INTRA-48</t>
-  </si>
-  <si>
-    <t>Are we SARBOX compliant ?</t>
   </si>
   <si>
     <t>Time Hrs</t>
@@ -152,6 +135,27 @@
     <t>Day-Date</t>
   </si>
   <si>
+    <t>Duplication of effort on Helpdesk</t>
+  </si>
+  <si>
+    <t>ITIL</t>
+  </si>
+  <si>
+    <t>Emma de Haan (Breda)</t>
+  </si>
+  <si>
+    <t>Support importing from DBF files!</t>
+  </si>
+  <si>
+    <t>IMS</t>
+  </si>
+  <si>
+    <t>Drillable Chart Regions: Wrong Url</t>
+  </si>
+  <si>
+    <t>INTRA</t>
+  </si>
+  <si>
     <t>Fields</t>
   </si>
   <si>
@@ -176,13 +180,10 @@
     <t>Url</t>
   </si>
   <si>
-    <t>http://localhost/Gemini/workspace/0/items</t>
+    <t>http://localhost/gemini/workspace/57/items</t>
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>David Person</t>
   </si>
   <si>
     <t>ProjectID</t>
@@ -194,19 +195,37 @@
     <t>Billing Rate</t>
   </si>
   <si>
-    <t>IMS</t>
-  </si>
-  <si>
     <t>To have the spreadsheet calculate cost by project, enter your standard labour cost (in hours) and the standard billing rate (in hours) in the columns</t>
   </si>
   <si>
     <t>You may alter this portion of the spreadsheet to meet your specific billing requirements, it is included as a sample with the VLOOKUP formulae on the data sheet representing best practice in linking between labour hours and a rate card.</t>
   </si>
+  <si>
+    <t>2010-May-19</t>
+  </si>
+  <si>
+    <t>2011-Feb-14</t>
+  </si>
+  <si>
+    <t>2015-Jan-30</t>
+  </si>
+  <si>
+    <t>2015-Sep-28</t>
+  </si>
+  <si>
+    <t>ITIL-197</t>
+  </si>
+  <si>
+    <t>IMS-88</t>
+  </si>
+  <si>
+    <t>IMS-78</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="hh:mm;@"/>
     <numFmt numFmtId="165" formatCode="[h]:mm"/>
@@ -351,9 +370,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -365,32 +381,115 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="49">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[h]:mm"/>
@@ -417,7 +516,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -519,7 +618,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1303,76 +1402,266 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2052" name="GemComType" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 1026"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="GemComType" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="GemComType" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshOnLoad="1" refreshedBy="Author" refreshedDate="41663.552507870372" missingItemsLimit="0" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="4">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshOnLoad="1" refreshedBy="Author" refreshedDate="42332.629647337963" missingItemsLimit="0" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="7">
   <cacheSource type="worksheet">
     <worksheetSource name="=data"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="IssueKey" numFmtId="0">
-      <sharedItems count="3">
-        <s v="INTRA-48"/>
-        <s v="INTRA-41"/>
+      <sharedItems count="4">
+        <s v="ITIL-197"/>
+        <s v="IMS-88"/>
+        <s v="IMS-78"/>
         <s v="INTRA-36"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
-      <sharedItems count="1">
+      <sharedItems count="4">
+        <s v="Problem"/>
+        <s v="Enhancement"/>
+        <s v="Bug"/>
         <s v="Story"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Title" numFmtId="0">
-      <sharedItems count="3">
-        <s v="Are we SARBOX compliant ?"/>
-        <s v="Webpart Zones: Customize Screen Parts"/>
+      <sharedItems count="4">
+        <s v="Duplication of effort on Helpdesk"/>
+        <s v="Support importing from DBF files!"/>
+        <s v="Drillable Chart Regions: Wrong Url"/>
         <s v="Multiple Currency Support"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Time" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="60" maxValue="2600"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2730"/>
     </cacheField>
     <cacheField name="Resource" numFmtId="0">
-      <sharedItems count="1">
+      <sharedItems count="2">
         <s v="Manager Person"/>
+        <s v="Emma de Haan (Breda)"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="166">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2010-04-30T11:23:08" maxDate="2014-01-16T14:58:48"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2010-04-30T11:23:08" maxDate="2015-09-28T11:35:10"/>
     </cacheField>
     <cacheField name="Comment" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="Project" numFmtId="0">
-      <sharedItems count="1">
+      <sharedItems count="3">
+        <s v="ITIL"/>
+        <s v="IMS"/>
         <s v="INTRA"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Time Type" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
+      <sharedItems containsBlank="1" count="3">
         <s v="Billable"/>
+        <s v="Testing"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Time Hrs" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="43" count="4">
-        <n v="43"/>
-        <n v="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="45" count="5">
+        <n v="4"/>
         <n v="2"/>
+        <n v="45"/>
+        <n v="0"/>
         <n v="3"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Time Mins" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="20"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="30"/>
     </cacheField>
     <cacheField name="Time Spent" numFmtId="165">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T01:00:00" maxDate="1899-12-31T19:20:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:01:00" maxDate="1899-12-31T21:30:00"/>
     </cacheField>
     <cacheField name="Day-Date" numFmtId="0">
-      <sharedItems count="2">
-        <s v="2014-Jan-16"/>
+      <sharedItems count="5">
+        <s v="2015-Jan-30"/>
+        <s v="2015-Sep-28"/>
+        <s v="2011-Feb-14"/>
+        <s v="2010-May-19"/>
         <s v="2010-Apr-30"/>
       </sharedItems>
     </cacheField>
@@ -1387,64 +1676,77 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="3" minRefreshableVersion="3" showDataTips="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="">
-  <location ref="C7:H15" firstHeaderRow="1" firstDataRow="2" firstDataCol="3" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="3" minRefreshableVersion="3" showDataTips="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="">
+  <location ref="C7:K19" firstHeaderRow="1" firstDataRow="2" firstDataCol="3" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" insertBlankRow="1" defaultSubtotal="0">
-      <items count="3">
+      <items count="4">
+        <item x="3"/>
+        <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item x="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" compact="0" outline="0" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0" insertBlankRow="1">
-      <items count="2">
+      <items count="5">
+        <item x="3"/>
         <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" insertBlankRow="1">
-      <items count="4">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="1">
+      <items count="2">
         <item x="0"/>
+        <item x="1"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="1">
-        <item x="0"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="2">
+      <items count="3">
+        <item x="2"/>
         <item x="0"/>
         <item x="1"/>
       </items>
     </pivotField>
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
     <pivotField compact="0" outline="0" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0" insertBlankRow="1">
-      <items count="5">
+      <items count="6">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
         <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField name="." axis="axisCol" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="2">
+      <items count="5">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
         <item x="1"/>
-        <item x="0"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" insertBlankRow="1"/>
@@ -1454,7 +1756,7 @@
     <field x="0"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="11">
     <i>
       <x/>
       <x/>
@@ -1477,6 +1779,21 @@
     <i t="blank" r="1">
       <x v="2"/>
     </i>
+    <i r="1">
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i t="blank" r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i t="blank" r="1">
+      <x v="1"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -1484,12 +1801,21 @@
   <colFields count="1">
     <field x="12"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="6">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -1504,62 +1830,62 @@
     <dataField name="Sum of Time Spent" fld="11" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="18">
-    <format dxfId="31">
+    <format dxfId="48">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="47">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="46">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="45">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="44">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="43">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="42">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="41">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="40">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="39">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="38">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="36">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="35">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="34">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="12" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="31">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -1585,55 +1911,65 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="3" minRefreshableVersion="3" showDataTips="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="">
-  <location ref="B7:E14" firstHeaderRow="1" firstDataRow="1" firstDataCol="3" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="3" minRefreshableVersion="3" showDataTips="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="">
+  <location ref="B7:E18" firstHeaderRow="1" firstDataRow="1" firstDataCol="3" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" insertBlankRow="1" defaultSubtotal="0">
-      <items count="3">
+      <items count="4">
+        <item x="3"/>
+        <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item x="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" compact="0" outline="0" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0" insertBlankRow="1">
-      <items count="2">
+      <items count="5">
+        <item x="3"/>
         <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" insertBlankRow="1">
-      <items count="4">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="1">
+      <items count="2">
         <item x="0"/>
+        <item x="1"/>
       </items>
     </pivotField>
     <pivotField compact="0" numFmtId="165" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="1">
-        <item x="0"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="2">
+      <items count="3">
+        <item x="2"/>
         <item x="0"/>
         <item x="1"/>
       </items>
     </pivotField>
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
     <pivotField compact="0" outline="0" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0" insertBlankRow="1">
-      <items count="5">
+      <items count="6">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
         <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1647,7 +1983,7 @@
     <field x="0"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="11">
     <i>
       <x/>
       <x/>
@@ -1670,6 +2006,21 @@
     <i t="blank" r="1">
       <x v="2"/>
     </i>
+    <i r="1">
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i t="blank" r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i t="blank" r="1">
+      <x v="1"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -1686,43 +2037,43 @@
     <dataField name="Sum of Time Spent" fld="11" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="13">
-    <format dxfId="13">
+    <format dxfId="30">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="29">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="28">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="27">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="26">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="25">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="24">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="23">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="22">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="21">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="18">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -1737,21 +2088,25 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" errorCaption="0" showError="1" missingCaption="0" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A5:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" errorCaption="0" showError="1" missingCaption="0" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A5:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
-      <items count="2">
+      <items count="5">
+        <item x="3"/>
         <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="4">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1762,11 +2117,12 @@
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
+      <items count="6">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
         <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1777,6 +2133,116 @@
   </pivotFields>
   <rowFields count="1">
     <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="9" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Variance" fld="13" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium12" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="3" minRefreshableVersion="3" showDataTips="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="">
+  <location ref="C7:I12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="14">
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" insertBlankRow="1" defaultSubtotal="0">
+      <items count="4">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" outline="0" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0" insertBlankRow="1">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" insertBlankRow="1">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0" insertBlankRow="1">
+      <items count="6">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField name="." axis="axisCol" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="5">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" insertBlankRow="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
   </rowFields>
   <rowItems count="4">
     <i>
@@ -1792,16 +2258,113 @@
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="12"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </colItems>
   <pageFields count="2">
+    <pageField fld="8" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="9" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Variance" fld="13" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Sum of Time Spent" fld="11" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="18">
+    <format dxfId="17">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="1"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="1"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="1"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="1"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="1"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="12" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleMedium12" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
@@ -1881,6 +2444,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1915,6 +2479,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2090,14 +2655,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV15"/>
+  <dimension ref="A1:IV19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2134,10 +2699,10 @@
         <f>ROUNDDOWN(SUM(Data!K:K)/60,0)+SUM(Data!J:J)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2146,22 +2711,22 @@
         <f>MOD(SUM(Data!K:K),60)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:50">
-      <c r="C5" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>8</v>
+      <c r="C5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="8" customFormat="1" ht="15.75">
@@ -2213,131 +2778,266 @@
       <c r="AX6" s="9"/>
     </row>
     <row r="7" spans="1:50">
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+    </row>
+    <row r="8" spans="1:50">
+      <c r="C8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29" t="s">
+      <c r="D8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-    </row>
-    <row r="8" spans="1:50">
-      <c r="C8" s="26" t="s">
+      <c r="E8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="F8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="G8" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="29" t="s">
+    </row>
+    <row r="9" spans="1:50">
+      <c r="C9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="D9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50">
-      <c r="C9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="30">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G9" s="30">
+      <c r="F9" s="29">
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="G9" s="29">
         <v>0</v>
       </c>
-      <c r="H9" s="30">
-        <v>4.1666666666666664E-2</v>
+      <c r="H9" s="29">
+        <v>0</v>
+      </c>
+      <c r="I9" s="29">
+        <v>0</v>
+      </c>
+      <c r="J9" s="29">
+        <v>0</v>
+      </c>
+      <c r="K9" s="29">
+        <v>0.20833333333333331</v>
       </c>
     </row>
     <row r="10" spans="1:50">
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
     </row>
     <row r="11" spans="1:50">
-      <c r="C11" s="26"/>
-      <c r="D11" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="30">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="29">
+        <v>0</v>
+      </c>
+      <c r="G11" s="29">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29">
+        <v>0</v>
+      </c>
+      <c r="I11" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="J11" s="29">
+        <v>0</v>
+      </c>
+      <c r="K11" s="29">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50">
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+    </row>
+    <row r="13" spans="1:50">
+      <c r="C13" s="25"/>
+      <c r="D13" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="29">
+        <v>0</v>
+      </c>
+      <c r="G13" s="29">
+        <v>0</v>
+      </c>
+      <c r="H13" s="29">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I13" s="29">
+        <v>0</v>
+      </c>
+      <c r="J13" s="29">
+        <v>0</v>
+      </c>
+      <c r="K13" s="29">
+        <v>6.9444444444444447E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50">
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+    </row>
+    <row r="15" spans="1:50">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="29">
+        <v>0</v>
+      </c>
+      <c r="G15" s="29">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="H15" s="29">
+        <v>0</v>
+      </c>
+      <c r="I15" s="29">
+        <v>0</v>
+      </c>
+      <c r="J15" s="29">
+        <v>0</v>
+      </c>
+      <c r="K15" s="29">
+        <v>6.9444444444444447E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50">
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+    </row>
+    <row r="17" spans="3:11">
+      <c r="C17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="29">
+        <v>0</v>
+      </c>
+      <c r="G17" s="29">
+        <v>0</v>
+      </c>
+      <c r="H17" s="29">
+        <v>0</v>
+      </c>
+      <c r="I17" s="29">
+        <v>0</v>
+      </c>
+      <c r="J17" s="29">
+        <v>1.8958333333333335</v>
+      </c>
+      <c r="K17" s="29">
+        <v>1.8958333333333335</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11">
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+    </row>
+    <row r="19" spans="3:11">
+      <c r="C19" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="29">
         <v>0.20833333333333331</v>
       </c>
-      <c r="G11" s="30">
-        <v>0</v>
-      </c>
-      <c r="H11" s="30">
-        <v>0.20833333333333331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:50">
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-    </row>
-    <row r="13" spans="1:50">
-      <c r="C13" s="26"/>
-      <c r="D13" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="30">
-        <v>0</v>
-      </c>
-      <c r="G13" s="30">
-        <v>1.8055555555555554</v>
-      </c>
-      <c r="H13" s="30">
-        <v>1.8055555555555554</v>
-      </c>
-    </row>
-    <row r="14" spans="1:50">
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-    </row>
-    <row r="15" spans="1:50">
-      <c r="C15" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="30">
-        <v>0.24999999999999997</v>
-      </c>
-      <c r="G15" s="30">
-        <v>1.8055555555555554</v>
-      </c>
-      <c r="H15" s="30">
-        <v>2.0555555555555554</v>
+      <c r="G19" s="29">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="H19" s="29">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I19" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="J19" s="29">
+        <v>1.8958333333333335</v>
+      </c>
+      <c r="K19" s="29">
+        <v>2.3555555555555556</v>
       </c>
     </row>
   </sheetData>
@@ -2350,11 +3050,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IP14"/>
+  <dimension ref="A1:IP18"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -2379,108 +3079,146 @@
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:5" s="1" customFormat="1">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="26" t="s">
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="30">
+        <v>0.20833333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="30">
+        <v>6.9444444444444447E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="30">
+        <v>6.9444444444444447E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="30">
+        <v>1.8958333333333335</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="30"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="31">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="31"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="26"/>
-      <c r="C10" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="31">
-        <v>0.20833333333333331</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="31"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="31">
-        <v>1.8055555555555554</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="31"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="31">
-        <v>2.0555555555555554</v>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="30">
+        <v>2.3555555555555556</v>
       </c>
     </row>
   </sheetData>
@@ -2495,8 +3233,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -2504,8 +3242,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
@@ -2520,32 +3258,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
-        <v>7</v>
+      <c r="A2" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="25" t="s">
-        <v>23</v>
+      <c r="A3" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="25" t="s">
-        <v>24</v>
+      <c r="A5" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="11">
         <v>0</v>
@@ -2553,7 +3291,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B7" s="11">
         <v>0</v>
@@ -2561,7 +3299,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="14" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B8" s="11">
         <v>0</v>
@@ -2569,9 +3307,17 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="14" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2587,23 +3333,382 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2382"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AX19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="50" width="8.85546875" style="3" customWidth="1"/>
+    <col min="51" max="256" width="8.85546875" style="1" customWidth="1"/>
+    <col min="257" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:50">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:50" ht="26.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50">
+      <c r="A3" s="5">
+        <f>ROUNDDOWN(SUM(Data!K:K)/60,0)+SUM(Data!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:50" ht="18.75">
+      <c r="A4" s="5">
+        <f>MOD(SUM(Data!K:K),60)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="1:50">
+      <c r="C5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" s="8" customFormat="1" ht="15.75">
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9"/>
+    </row>
+    <row r="7" spans="1:50">
+      <c r="C7" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="1:50">
+      <c r="C8" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="1:50">
+      <c r="C9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="29">
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="E9" s="29">
+        <v>0</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0</v>
+      </c>
+      <c r="H9" s="29">
+        <v>0</v>
+      </c>
+      <c r="I9" s="29">
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="1:50">
+      <c r="C10" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="29">
+        <v>0</v>
+      </c>
+      <c r="E10" s="29">
+        <v>0</v>
+      </c>
+      <c r="F10" s="29">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="H10" s="29">
+        <v>1.8958333333333335</v>
+      </c>
+      <c r="I10" s="29">
+        <v>2.1458333333333335</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:50">
+      <c r="C11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="29">
+        <v>0</v>
+      </c>
+      <c r="E11" s="29">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="F11" s="29">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="G11" s="29">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29">
+        <v>0</v>
+      </c>
+      <c r="I11" s="29">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:50">
+      <c r="C12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="E12" s="29">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="F12" s="29">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="G12" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="H12" s="29">
+        <v>1.8958333333333335</v>
+      </c>
+      <c r="I12" s="29">
+        <v>2.3555555555555561</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:50">
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="1:50">
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="1:50">
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:50">
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="3:12">
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="3:12">
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="3:12">
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.70866143703460693" right="0.70866143703460693" top="0.74803149700164795" bottom="0.74803149700164795" header="0.31496062874794006" footer="0.31496062874794006"/>
+  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2388"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="A2:I2"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" customWidth="1"/>
-    <col min="3" max="3" width="49.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" customWidth="1"/>
@@ -2614,25 +3719,25 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -2641,16 +3746,16 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="L1" s="13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2686,15 +3791,15 @@
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="17"/>
+      <c r="A6" s="15"/>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="17"/>
+      <c r="A7" s="15"/>
       <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="17"/>
+      <c r="A8" s="15"/>
       <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:13">
@@ -2712,84 +3817,84 @@
     <row r="12" spans="1:13">
       <c r="A12" s="17"/>
       <c r="F12" s="16"/>
-      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="17"/>
       <c r="F13" s="16"/>
-      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="17"/>
       <c r="F14" s="16"/>
-      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="17"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="16" spans="1:13">
+      <c r="A16" s="17"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="17"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="17"/>
       <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="17"/>
       <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="17"/>
-      <c r="C20" s="1"/>
       <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="1:12" s="1" customFormat="1">
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="17"/>
       <c r="F21" s="16"/>
-      <c r="L21" s="13"/>
-    </row>
-    <row r="22" spans="1:12" s="1" customFormat="1">
-      <c r="A22" s="17"/>
-      <c r="F22" s="16"/>
-      <c r="L22" s="13"/>
-    </row>
-    <row r="23" spans="1:12" s="1" customFormat="1">
-      <c r="A23" s="17"/>
-      <c r="F23" s="16"/>
-      <c r="L23" s="13"/>
-    </row>
-    <row r="24" spans="1:12" s="1" customFormat="1">
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="17"/>
       <c r="F24" s="16"/>
-      <c r="L24" s="13"/>
-    </row>
-    <row r="25" spans="1:12">
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="17"/>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="A26" s="17"/>
+      <c r="C26" s="1"/>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:13" s="1" customFormat="1">
       <c r="A27" s="17"/>
       <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="L27" s="13"/>
+    </row>
+    <row r="28" spans="1:13" s="1" customFormat="1">
       <c r="A28" s="17"/>
       <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="1:13" s="1" customFormat="1">
       <c r="A29" s="17"/>
       <c r="F29" s="16"/>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="L29" s="13"/>
+    </row>
+    <row r="30" spans="1:13" s="1" customFormat="1">
       <c r="A30" s="17"/>
       <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="17"/>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13">
       <c r="A32" s="17"/>
       <c r="F32" s="16"/>
     </row>
@@ -2797,23 +3902,29 @@
       <c r="A33" s="17"/>
       <c r="F33" s="16"/>
     </row>
-    <row r="546" spans="1:1">
-      <c r="A546" s="17"/>
-    </row>
-    <row r="547" spans="1:1">
-      <c r="A547" s="17"/>
-    </row>
-    <row r="548" spans="1:1">
-      <c r="A548" s="17"/>
-    </row>
-    <row r="549" spans="1:1">
-      <c r="A549" s="17"/>
-    </row>
-    <row r="550" spans="1:1">
-      <c r="A550" s="17"/>
-    </row>
-    <row r="551" spans="1:1">
-      <c r="A551" s="17"/>
+    <row r="34" spans="1:6">
+      <c r="A34" s="17"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="17"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="17"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="17"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="17"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="17"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" s="17"/>
@@ -8307,6 +9418,24 @@
     </row>
     <row r="2382" spans="1:1">
       <c r="A2382" s="17"/>
+    </row>
+    <row r="2383" spans="1:1">
+      <c r="A2383" s="17"/>
+    </row>
+    <row r="2384" spans="1:1">
+      <c r="A2384" s="17"/>
+    </row>
+    <row r="2385" spans="1:1">
+      <c r="A2385" s="17"/>
+    </row>
+    <row r="2386" spans="1:1">
+      <c r="A2386" s="17"/>
+    </row>
+    <row r="2387" spans="1:1">
+      <c r="A2387" s="17"/>
+    </row>
+    <row r="2388" spans="1:1">
+      <c r="A2388" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -8319,8 +9448,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -8342,59 +9471,59 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B3" s="20">
         <f ca="1">TODAY()</f>
-        <v>41663</v>
+        <v>42338</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -8408,8 +9537,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -8437,7 +9566,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -8448,7 +9577,7 @@
     </row>
     <row r="5" spans="1:6" ht="30">
       <c r="F5" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8456,7 +9585,7 @@
     </row>
     <row r="7" spans="1:6" ht="45">
       <c r="F7" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
